--- a/spliced/walkingToRunning/2023-03-30_14-20-17/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-20-17/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.409592151641846</v>
+        <v>-1.260086536407471</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.797701358795166</v>
+        <v>-6.693731784820557</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.467254638671875</v>
+        <v>-10.91690349578857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2414607405662536</v>
+        <v>-0.3250093758106231</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.242396354675293</v>
+        <v>-9.289229393005373</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.609268188476562</v>
+        <v>-12.17654037475586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.260086536407471</v>
+        <v>-0.197640836238861</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.693731784820557</v>
+        <v>-8.023595809936523</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.91690349578857</v>
+        <v>-9.897425651550291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.3250093758106231</v>
+        <v>8.160659790039062</v>
       </c>
       <c r="B5" t="n">
-        <v>-9.289229393005373</v>
+        <v>-11.02071857452393</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.17654037475586</v>
+        <v>-0.9127321243286132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.197640836238861</v>
+        <v>0.2106014490127563</v>
       </c>
       <c r="B6" t="n">
-        <v>-8.023595809936523</v>
+        <v>-8.135941505432129</v>
       </c>
       <c r="C6" t="n">
-        <v>-9.897425651550291</v>
+        <v>-7.824718952178955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.160659790039062</v>
+        <v>3.468891382217407</v>
       </c>
       <c r="B7" t="n">
-        <v>-11.02071857452393</v>
+        <v>-25.93060493469238</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9127321243286132</v>
+        <v>3.170974254608154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2106014490127563</v>
+        <v>-34.4773063659668</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.135941505432129</v>
+        <v>-0.4352650642395019</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.824718952178955</v>
+        <v>-17.56653213500977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.468891382217407</v>
+        <v>-14.77978038787842</v>
       </c>
       <c r="B9" t="n">
-        <v>-25.93060493469238</v>
+        <v>-11.52226448059082</v>
       </c>
       <c r="C9" t="n">
-        <v>3.170974254608154</v>
+        <v>-11.90310859680176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-34.4773063659668</v>
+        <v>24.58778762817383</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4352650642395019</v>
+        <v>-1.438390731811523</v>
       </c>
       <c r="C10" t="n">
-        <v>-17.56653213500977</v>
+        <v>15.80244827270508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-14.77978038787842</v>
+        <v>3.9564049243927</v>
       </c>
       <c r="B11" t="n">
-        <v>-11.52226448059082</v>
+        <v>-11.81492042541504</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.90310859680176</v>
+        <v>11.41962051391602</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24.58778762817383</v>
+        <v>0.3332785367965698</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.438390731811523</v>
+        <v>0.8126574158668518</v>
       </c>
       <c r="C12" t="n">
-        <v>15.80244827270508</v>
+        <v>-8.991792678833008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.9564049243927</v>
+        <v>26.99358177185058</v>
       </c>
       <c r="B13" t="n">
-        <v>-11.81492042541504</v>
+        <v>-74.40792083740234</v>
       </c>
       <c r="C13" t="n">
-        <v>11.41962051391602</v>
+        <v>2.843526840209961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3332785367965698</v>
+        <v>47.74433135986328</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8126574158668518</v>
+        <v>8.593025207519531</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.991792678833008</v>
+        <v>-17.67363357543945</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26.99358177185058</v>
+        <v>0.0659644603729248</v>
       </c>
       <c r="B15" t="n">
-        <v>-74.40792083740234</v>
+        <v>-10.85460472106934</v>
       </c>
       <c r="C15" t="n">
-        <v>2.843526840209961</v>
+        <v>-14.575852394104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>47.74433135986328</v>
+        <v>29.60918045043945</v>
       </c>
       <c r="B16" t="n">
-        <v>8.593025207519531</v>
+        <v>-78.06973266601562</v>
       </c>
       <c r="C16" t="n">
-        <v>-17.67363357543945</v>
+        <v>16.24357986450195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0659644603729248</v>
+        <v>-4.278045177459717</v>
       </c>
       <c r="B17" t="n">
-        <v>-10.85460472106934</v>
+        <v>2.075074911117554</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.575852394104</v>
+        <v>-9.626623153686523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29.60918045043945</v>
+        <v>16.6558837890625</v>
       </c>
       <c r="B18" t="n">
-        <v>-78.06973266601562</v>
+        <v>-14.57428646087646</v>
       </c>
       <c r="C18" t="n">
-        <v>16.24357986450195</v>
+        <v>21.4177131652832</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.278045177459717</v>
+        <v>-54.05896377563477</v>
       </c>
       <c r="B19" t="n">
-        <v>2.075074911117554</v>
+        <v>-32.270751953125</v>
       </c>
       <c r="C19" t="n">
-        <v>-9.626623153686523</v>
+        <v>-11.78435802459717</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16.6558837890625</v>
+        <v>1.290312767028809</v>
       </c>
       <c r="B20" t="n">
-        <v>-14.57428646087646</v>
+        <v>-2.825088739395142</v>
       </c>
       <c r="C20" t="n">
-        <v>21.4177131652832</v>
+        <v>-12.40687561035156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-54.05896377563477</v>
+        <v>-6.366491794586182</v>
       </c>
       <c r="B21" t="n">
-        <v>-32.270751953125</v>
+        <v>-13.87612628936768</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.78435802459717</v>
+        <v>-13.16234016418457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-4.204625129699707</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.39580774307251</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.694075107574463</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.387409210205078</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1273889541625976</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.40644645690918</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-30.62431526184082</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-35.95574188232422</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.9927592277526855</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31.11456108093262</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10.69985771179199</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-13.1208086013794</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-20.68763160705566</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-28.60056304931641</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-20.36888885498047</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27.19162559509277</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-76.43211364746094</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.331388473510742</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.005526781082153</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.733113288879395</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-6.29358959197998</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-72.39521789550781</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-77.27358245849609</v>
+      </c>
+      <c r="C29" t="n">
+        <v>66.16534423828125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-17.93119621276855</v>
+      </c>
+      <c r="B30" t="n">
+        <v>35.98200607299805</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.464548587799072</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0441454052925109</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.34683990478516</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-10.79495239257812</v>
       </c>
     </row>
   </sheetData>
